--- a/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testValidations/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestInsurancePolicyStandardisation/testValidations/ExpectedResults.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42F600E-BF88-4BE1-82F3-0B5C0E6F533F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="0" windowWidth="20055" windowHeight="10320" tabRatio="822" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er_broken_feed" sheetId="7" r:id="rId1"/>
@@ -28,17 +29,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">er_hopper_insurance_policy!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="505">
   <si>
     <t>N</t>
   </si>
@@ -1184,51 +1193,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>67.32</t>
-  </si>
-  <si>
-    <t>98.26</t>
-  </si>
-  <si>
-    <t>94.42</t>
-  </si>
-  <si>
-    <t>13.65</t>
-  </si>
-  <si>
-    <t>10.51</t>
-  </si>
-  <si>
-    <t>21.62</t>
-  </si>
-  <si>
-    <t>36.17</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43.89</t>
-  </si>
-  <si>
-    <t>11.04</t>
-  </si>
-  <si>
-    <t>84.7</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>22.69</t>
-  </si>
-  <si>
-    <t>29.84</t>
-  </si>
-  <si>
-    <t>85.86</t>
   </si>
   <si>
     <t>T_CLIENT_TEXT5</t>
@@ -1603,7 +1567,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1660,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1731,6 +1695,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2046,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2081,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,7 +2671,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
@@ -2757,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>18</v>
@@ -2819,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>18</v>
@@ -2881,7 +2857,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>18</v>
@@ -2943,7 +2919,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
@@ -3001,7 +2977,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:U9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:U9">
     <sortCondition ref="A4:A9"/>
     <sortCondition ref="B4:B9"/>
   </sortState>
@@ -3010,7 +2986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3255,7 +3231,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -3281,7 +3257,7 @@
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="N4" s="17">
         <v>38718</v>
@@ -3316,7 +3292,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -3342,7 +3318,7 @@
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="4" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="N5" s="17">
         <v>38718</v>
@@ -3377,7 +3353,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -3430,7 +3406,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -3483,7 +3459,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
         <v>300</v>
@@ -3501,7 +3477,7 @@
         <v>300</v>
       </c>
       <c r="M8" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="N8" s="19">
         <v>40179</v>
@@ -3513,7 +3489,7 @@
         <v>40179</v>
       </c>
       <c r="R8" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="S8" s="19">
         <v>40179</v>
@@ -3537,12 +3513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:BH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:D14"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,25 +3535,25 @@
     <col min="10" max="10" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" style="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="21.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="28.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -3585,11 +3561,11 @@
     <col min="38" max="45" width="19.5703125" style="11" customWidth="1"/>
     <col min="46" max="46" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.7109375" style="4" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="50" max="53" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="57" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="21" style="27" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="28" style="11" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="61" max="16384" width="9.140625" style="4"/>
@@ -3612,7 +3588,7 @@
         <v>226</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>227</v>
@@ -3632,13 +3608,13 @@
       <c r="L1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="29" t="s">
         <v>232</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>234</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -3653,7 +3629,7 @@
       <c r="S1" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>239</v>
       </c>
       <c r="U1" s="9" t="s">
@@ -3662,10 +3638,10 @@
       <c r="V1" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>243</v>
       </c>
       <c r="Y1" s="9" t="s">
@@ -3686,7 +3662,7 @@
       <c r="AD1" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>249</v>
       </c>
       <c r="AF1" s="9" t="s">
@@ -3714,33 +3690,33 @@
         <v>365</v>
       </c>
       <c r="AN1" s="9" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AP1" s="9" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AQ1" s="9" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AR1" s="9" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AT1" s="9" t="s">
         <v>256</v>
       </c>
       <c r="AU1" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="AV1" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AV1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="10" t="s">
         <v>258</v>
       </c>
       <c r="AX1" s="9" t="s">
@@ -3755,19 +3731,19 @@
       <c r="BA1" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="10" t="s">
         <v>161</v>
       </c>
       <c r="BG1" s="9" t="s">
@@ -3814,13 +3790,13 @@
       <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="29" t="s">
         <v>166</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>166</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -3835,7 +3811,7 @@
       <c r="S2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>162</v>
       </c>
       <c r="U2" s="9" t="s">
@@ -3844,10 +3820,10 @@
       <c r="V2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>166</v>
       </c>
       <c r="Y2" s="9" t="s">
@@ -3868,7 +3844,7 @@
       <c r="AD2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="10" t="s">
         <v>166</v>
       </c>
       <c r="AF2" s="9" t="s">
@@ -3919,10 +3895,10 @@
       <c r="AU2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="10" t="s">
         <v>162</v>
       </c>
       <c r="AX2" s="9" t="s">
@@ -3937,19 +3913,19 @@
       <c r="BA2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="10" t="s">
         <v>166</v>
       </c>
       <c r="BG2" s="9" t="s">
@@ -3996,13 +3972,13 @@
       <c r="L3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="9" t="s">
@@ -4017,7 +3993,7 @@
       <c r="S3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -4026,10 +4002,10 @@
       <c r="V3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="9" t="s">
+      <c r="W3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Y3" s="9" t="s">
@@ -4050,7 +4026,7 @@
       <c r="AD3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AF3" s="9" t="s">
@@ -4101,10 +4077,10 @@
       <c r="AU3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AV3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="9" t="s">
+      <c r="AV3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AX3" s="9" t="s">
@@ -4119,19 +4095,19 @@
       <c r="BA3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="BB3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="9" t="s">
+      <c r="BB3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="BG3" s="9" t="s">
@@ -4164,12 +4140,12 @@
       <c r="L4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>18</v>
+      <c r="M4" s="30">
+        <v>1</v>
       </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
-        <v>18</v>
+      <c r="O4" s="27">
+        <v>1</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>18</v>
@@ -4181,13 +4157,13 @@
       <c r="V4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
       <c r="Y4" s="13"/>
       <c r="AA4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
+      <c r="AE4" s="28"/>
       <c r="AF4" s="13" t="s">
         <v>18</v>
       </c>
@@ -4212,8 +4188,8 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
-      <c r="BF4" s="11" t="s">
-        <v>18</v>
+      <c r="BF4" s="27">
+        <v>1</v>
       </c>
       <c r="BG4" s="13" t="s">
         <v>306</v>
@@ -4230,7 +4206,7 @@
         <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>284</v>
@@ -4256,14 +4232,14 @@
       <c r="L5" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>18</v>
+      <c r="M5" s="30">
+        <v>1</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="13" t="s">
-        <v>18</v>
+      <c r="O5" s="27">
+        <v>1</v>
       </c>
       <c r="P5" s="13" t="s">
         <v>115</v>
@@ -4277,8 +4253,8 @@
       <c r="S5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>293</v>
+      <c r="T5" s="27">
+        <v>0</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>277</v>
@@ -4286,11 +4262,11 @@
       <c r="V5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>18</v>
+      <c r="W5" s="28">
+        <v>1</v>
+      </c>
+      <c r="X5" s="28">
+        <v>1</v>
       </c>
       <c r="Y5" s="13" t="s">
         <v>18</v>
@@ -4310,8 +4286,8 @@
       <c r="AD5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>18</v>
+      <c r="AE5" s="28">
+        <v>1</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>18</v>
@@ -4339,10 +4315,10 @@
         <v>115</v>
       </c>
       <c r="AO5" s="13" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AQ5" s="13" t="s">
         <v>379</v>
@@ -4355,11 +4331,11 @@
         <v>39082</v>
       </c>
       <c r="AU5" s="12"/>
-      <c r="AV5" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>383</v>
+      <c r="AV5" s="27">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="AW5" s="27">
+        <v>98.26</v>
       </c>
       <c r="AX5" s="11" t="s">
         <v>0</v>
@@ -4370,17 +4346,17 @@
       <c r="BA5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="BB5" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="BC5" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="BD5" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF5" s="11" t="s">
-        <v>18</v>
+      <c r="BB5" s="27">
+        <v>94.42</v>
+      </c>
+      <c r="BC5" s="27">
+        <v>13.65</v>
+      </c>
+      <c r="BD5" s="27">
+        <v>10.51</v>
+      </c>
+      <c r="BF5" s="27">
+        <v>1</v>
       </c>
       <c r="BG5" s="13" t="s">
         <v>305</v>
@@ -4400,7 +4376,7 @@
         <v>295</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>284</v>
@@ -4426,14 +4402,14 @@
       <c r="L6" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>18</v>
+      <c r="M6" s="30">
+        <v>1</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>18</v>
+      <c r="O6" s="27">
+        <v>1</v>
       </c>
       <c r="P6" s="13" t="s">
         <v>72</v>
@@ -4447,8 +4423,8 @@
       <c r="S6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="11" t="s">
-        <v>293</v>
+      <c r="T6" s="27">
+        <v>0</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>278</v>
@@ -4456,11 +4432,11 @@
       <c r="V6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>18</v>
+      <c r="W6" s="28">
+        <v>1</v>
+      </c>
+      <c r="X6" s="28">
+        <v>1</v>
       </c>
       <c r="Y6" s="13" t="s">
         <v>18</v>
@@ -4480,8 +4456,8 @@
       <c r="AD6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE6" s="13" t="s">
-        <v>18</v>
+      <c r="AE6" s="28">
+        <v>1</v>
       </c>
       <c r="AF6" s="13" t="s">
         <v>18</v>
@@ -4511,10 +4487,10 @@
         <v>72</v>
       </c>
       <c r="AO6" s="13" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AP6" s="13" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AQ6" s="13" t="s">
         <v>379</v>
@@ -4527,11 +4503,11 @@
         <v>39082</v>
       </c>
       <c r="AU6" s="12"/>
-      <c r="AV6" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>383</v>
+      <c r="AV6" s="27">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="AW6" s="27">
+        <v>98.26</v>
       </c>
       <c r="AX6" s="11" t="s">
         <v>0</v>
@@ -4542,17 +4518,17 @@
       <c r="BA6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="BB6" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="BC6" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="BD6" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF6" s="11" t="s">
-        <v>18</v>
+      <c r="BB6" s="27">
+        <v>94.42</v>
+      </c>
+      <c r="BC6" s="27">
+        <v>13.65</v>
+      </c>
+      <c r="BD6" s="27">
+        <v>10.51</v>
+      </c>
+      <c r="BF6" s="27">
+        <v>1</v>
       </c>
       <c r="BG6" s="13" t="s">
         <v>305</v>
@@ -4572,7 +4548,7 @@
         <v>295</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>284</v>
@@ -4598,14 +4574,14 @@
       <c r="L7" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>18</v>
+      <c r="M7" s="30">
+        <v>1</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>18</v>
+      <c r="O7" s="27">
+        <v>1</v>
       </c>
       <c r="P7" s="13" t="s">
         <v>117</v>
@@ -4619,8 +4595,8 @@
       <c r="S7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>293</v>
+      <c r="T7" s="27">
+        <v>0</v>
       </c>
       <c r="U7" s="13" t="s">
         <v>280</v>
@@ -4628,11 +4604,11 @@
       <c r="V7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>18</v>
+      <c r="W7" s="28">
+        <v>1</v>
+      </c>
+      <c r="X7" s="28">
+        <v>1</v>
       </c>
       <c r="Y7" s="13" t="s">
         <v>18</v>
@@ -4652,8 +4628,8 @@
       <c r="AD7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE7" s="13" t="s">
-        <v>18</v>
+      <c r="AE7" s="28">
+        <v>1</v>
       </c>
       <c r="AF7" s="13" t="s">
         <v>18</v>
@@ -4681,7 +4657,7 @@
         <v>117</v>
       </c>
       <c r="AO7" s="13" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="AP7" s="13" t="s">
         <v>378</v>
@@ -4697,11 +4673,11 @@
         <v>39447</v>
       </c>
       <c r="AU7" s="12"/>
-      <c r="AV7" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>388</v>
+      <c r="AV7" s="27">
+        <v>21.62</v>
+      </c>
+      <c r="AW7" s="27">
+        <v>36.17</v>
       </c>
       <c r="AX7" s="11" t="s">
         <v>0</v>
@@ -4712,17 +4688,17 @@
       <c r="BA7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="BB7" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC7" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="BD7" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="BF7" s="11" t="s">
-        <v>18</v>
+      <c r="BB7" s="27">
+        <v>37</v>
+      </c>
+      <c r="BC7" s="27">
+        <v>43.89</v>
+      </c>
+      <c r="BD7" s="27">
+        <v>11.04</v>
+      </c>
+      <c r="BF7" s="27">
+        <v>1</v>
       </c>
       <c r="BG7" s="13" t="s">
         <v>305</v>
@@ -4742,7 +4718,7 @@
         <v>295</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>284</v>
@@ -4768,14 +4744,14 @@
       <c r="L8" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>18</v>
+      <c r="M8" s="30">
+        <v>1</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>18</v>
+      <c r="O8" s="27">
+        <v>1</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>77</v>
@@ -4789,8 +4765,8 @@
       <c r="S8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="11" t="s">
-        <v>293</v>
+      <c r="T8" s="27">
+        <v>0</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>281</v>
@@ -4798,11 +4774,11 @@
       <c r="V8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>18</v>
+      <c r="W8" s="28">
+        <v>1</v>
+      </c>
+      <c r="X8" s="28">
+        <v>1</v>
       </c>
       <c r="Y8" s="13" t="s">
         <v>18</v>
@@ -4822,8 +4798,8 @@
       <c r="AD8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AE8" s="13" t="s">
-        <v>18</v>
+      <c r="AE8" s="28">
+        <v>1</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>18</v>
@@ -4853,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="AP8" s="13" t="s">
         <v>378</v>
@@ -4869,11 +4845,11 @@
         <v>39447</v>
       </c>
       <c r="AU8" s="12"/>
-      <c r="AV8" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AW8" s="11" t="s">
-        <v>388</v>
+      <c r="AV8" s="27">
+        <v>21.62</v>
+      </c>
+      <c r="AW8" s="27">
+        <v>36.17</v>
       </c>
       <c r="AX8" s="11" t="s">
         <v>0</v>
@@ -4884,17 +4860,17 @@
       <c r="BA8" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="BB8" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="BC8" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="BD8" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="BF8" s="11" t="s">
-        <v>18</v>
+      <c r="BB8" s="27">
+        <v>37</v>
+      </c>
+      <c r="BC8" s="27">
+        <v>43.89</v>
+      </c>
+      <c r="BD8" s="27">
+        <v>11.04</v>
+      </c>
+      <c r="BF8" s="27">
+        <v>1</v>
       </c>
       <c r="BG8" s="13" t="s">
         <v>305</v>
@@ -4908,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>284</v>
@@ -4938,19 +4914,19 @@
         <v>18</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>18</v>
+        <v>459</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>18</v>
+      <c r="O9" s="27">
+        <v>1</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>18</v>
@@ -4961,20 +4937,20 @@
       <c r="S9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>293</v>
+      <c r="T9" s="27">
+        <v>0</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="V9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>18</v>
+      <c r="W9" s="28">
+        <v>1</v>
+      </c>
+      <c r="X9" s="28">
+        <v>1</v>
       </c>
       <c r="Y9" s="11" t="s">
         <v>18</v>
@@ -4994,8 +4970,8 @@
       <c r="AD9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AE9" s="11" t="s">
-        <v>18</v>
+      <c r="AE9" s="28">
+        <v>1</v>
       </c>
       <c r="AF9" s="11" t="s">
         <v>18</v>
@@ -5010,7 +4986,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AL9" s="11" t="s">
         <v>73</v>
@@ -5019,13 +4995,13 @@
         <v>50</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AQ9" s="11" t="s">
         <v>38</v>
@@ -5039,11 +5015,11 @@
       <c r="AT9" s="12">
         <v>40543</v>
       </c>
-      <c r="AV9" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW9" s="11" t="s">
-        <v>393</v>
+      <c r="AV9" s="27">
+        <v>84.7</v>
+      </c>
+      <c r="AW9" s="27">
+        <v>1.72</v>
       </c>
       <c r="AX9" s="11" t="s">
         <v>0</v>
@@ -5054,17 +5030,17 @@
       <c r="BA9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="BB9" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="BC9" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="BD9" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="BF9" s="11" t="s">
-        <v>18</v>
+      <c r="BB9" s="27">
+        <v>22.69</v>
+      </c>
+      <c r="BC9" s="27">
+        <v>29.84</v>
+      </c>
+      <c r="BD9" s="27">
+        <v>85.86</v>
+      </c>
+      <c r="BF9" s="27">
+        <v>1</v>
       </c>
       <c r="BG9" s="11" t="s">
         <v>305</v>
@@ -5074,7 +5050,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:BF8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BF8">
     <sortCondition ref="B4:B8"/>
     <sortCondition ref="D4:D8"/>
   </sortState>
@@ -5084,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5300,7 +5276,7 @@
         <v>330</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5411,13 +5387,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>69</v>
@@ -5426,7 +5402,7 @@
         <v>154</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>38</v>
@@ -5440,13 +5416,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>69</v>
@@ -5455,7 +5431,7 @@
         <v>149</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>38</v>
@@ -5469,13 +5445,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>74</v>
@@ -5498,13 +5474,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>73</v>
@@ -5531,10 +5507,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A65" sqref="A65:Q67"/>
     </sheetView>
@@ -5729,22 +5705,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J4" s="24">
         <v>42767</v>
@@ -5754,13 +5730,13 @@
         <v>285</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>3</v>
@@ -5780,22 +5756,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="J5" s="24">
         <v>42767</v>
@@ -5805,13 +5781,13 @@
         <v>285</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P5" s="23" t="s">
         <v>3</v>
@@ -5831,22 +5807,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="J6" s="24">
         <v>42767</v>
@@ -5856,13 +5832,13 @@
         <v>285</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>3</v>
@@ -5882,22 +5858,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J7" s="24">
         <v>42767</v>
@@ -5907,13 +5883,13 @@
         <v>285</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P7" s="23" t="s">
         <v>3</v>
@@ -5933,22 +5909,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="J8" s="24">
         <v>42767</v>
@@ -5958,13 +5934,13 @@
         <v>285</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P8" s="23" t="s">
         <v>3</v>
@@ -5984,22 +5960,22 @@
         <v>1</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="G9" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>435</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>450</v>
       </c>
       <c r="J9" s="24">
         <v>42767</v>
@@ -6009,13 +5985,13 @@
         <v>285</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P9" s="23" t="s">
         <v>3</v>
@@ -6035,22 +6011,22 @@
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="J10" s="24">
         <v>42767</v>
@@ -6060,13 +6036,13 @@
         <v>285</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P10" s="23" t="s">
         <v>3</v>
@@ -6086,22 +6062,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="J11" s="24">
         <v>42767</v>
@@ -6111,13 +6087,13 @@
         <v>285</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P11" s="23" t="s">
         <v>3</v>
@@ -6137,22 +6113,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="J12" s="24">
         <v>42767</v>
@@ -6162,13 +6138,13 @@
         <v>285</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P12" s="23" t="s">
         <v>3</v>
@@ -6188,22 +6164,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J13" s="24">
         <v>42767</v>
@@ -6213,13 +6189,13 @@
         <v>285</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N13" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P13" s="23" t="s">
         <v>3</v>
@@ -6239,22 +6215,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J14" s="24">
         <v>42767</v>
@@ -6264,13 +6240,13 @@
         <v>285</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N14" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>3</v>
@@ -6290,22 +6266,22 @@
         <v>1</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J15" s="24">
         <v>42767</v>
@@ -6315,13 +6291,13 @@
         <v>285</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N15" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P15" s="23" t="s">
         <v>3</v>
@@ -6341,22 +6317,22 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J16" s="24">
         <v>42767</v>
@@ -6366,13 +6342,13 @@
         <v>285</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P16" s="23" t="s">
         <v>3</v>
@@ -6392,22 +6368,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J17" s="24">
         <v>42767</v>
@@ -6417,13 +6393,13 @@
         <v>285</v>
       </c>
       <c r="M17" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>3</v>
@@ -6443,22 +6419,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>488</v>
-      </c>
       <c r="H18" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="J18" s="24">
         <v>42767</v>
@@ -6468,13 +6444,13 @@
         <v>285</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N18" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P18" s="23" t="s">
         <v>3</v>
@@ -6494,22 +6470,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="J19" s="24">
         <v>42767</v>
@@ -6519,13 +6495,13 @@
         <v>285</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N19" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P19" s="23" t="s">
         <v>3</v>
@@ -6545,22 +6521,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>65</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="J20" s="24">
         <v>42767</v>
@@ -6570,13 +6546,13 @@
         <v>285</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N20" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P20" s="23" t="s">
         <v>3</v>
@@ -6596,22 +6572,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J21" s="24">
         <v>42767</v>
@@ -6621,13 +6597,13 @@
         <v>285</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N21" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P21" s="23" t="s">
         <v>3</v>
@@ -6647,22 +6623,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J22" s="24">
         <v>42767</v>
@@ -6672,13 +6648,13 @@
         <v>285</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N22" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P22" s="23" t="s">
         <v>3</v>
@@ -6698,22 +6674,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J23" s="24">
         <v>42767</v>
@@ -6723,13 +6699,13 @@
         <v>285</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P23" s="23" t="s">
         <v>3</v>
@@ -6749,22 +6725,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J24" s="24">
         <v>42767</v>
@@ -6774,13 +6750,13 @@
         <v>285</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N24" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O24" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P24" s="23" t="s">
         <v>3</v>
@@ -6800,22 +6776,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J25" s="24">
         <v>42767</v>
@@ -6825,13 +6801,13 @@
         <v>285</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N25" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P25" s="23" t="s">
         <v>3</v>
@@ -6851,22 +6827,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J26" s="24">
         <v>42767</v>
@@ -6876,13 +6852,13 @@
         <v>285</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N26" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P26" s="23" t="s">
         <v>3</v>
@@ -6902,22 +6878,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J27" s="24">
         <v>42767</v>
@@ -6927,13 +6903,13 @@
         <v>285</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N27" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P27" s="23" t="s">
         <v>3</v>
@@ -6953,22 +6929,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J28" s="24">
         <v>42767</v>
@@ -6978,13 +6954,13 @@
         <v>285</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N28" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P28" s="23" t="s">
         <v>3</v>
@@ -7004,22 +6980,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J29" s="24">
         <v>42767</v>
@@ -7029,13 +7005,13 @@
         <v>285</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N29" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P29" s="23" t="s">
         <v>3</v>
@@ -7055,22 +7031,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="J30" s="24">
         <v>42767</v>
@@ -7080,13 +7056,13 @@
         <v>285</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N30" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P30" s="23" t="s">
         <v>3</v>
@@ -7106,22 +7082,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J31" s="24">
         <v>42767</v>
@@ -7131,13 +7107,13 @@
         <v>285</v>
       </c>
       <c r="M31" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N31" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P31" s="23" t="s">
         <v>3</v>
@@ -7157,22 +7133,22 @@
         <v>1</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J32" s="24">
         <v>42767</v>
@@ -7182,13 +7158,13 @@
         <v>285</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N32" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P32" s="23" t="s">
         <v>3</v>
@@ -7208,22 +7184,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J33" s="24">
         <v>42767</v>
@@ -7233,13 +7209,13 @@
         <v>285</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N33" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P33" s="23" t="s">
         <v>3</v>
@@ -7259,22 +7235,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J34" s="24">
         <v>42767</v>
@@ -7284,13 +7260,13 @@
         <v>285</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N34" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P34" s="23" t="s">
         <v>3</v>
@@ -7310,22 +7286,22 @@
         <v>1</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J35" s="24">
         <v>42767</v>
@@ -7335,13 +7311,13 @@
         <v>285</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N35" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P35" s="23" t="s">
         <v>3</v>
@@ -7361,22 +7337,22 @@
         <v>1</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J36" s="24">
         <v>42767</v>
@@ -7386,13 +7362,13 @@
         <v>285</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N36" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P36" s="23" t="s">
         <v>3</v>
@@ -7412,22 +7388,22 @@
         <v>1</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J37" s="24">
         <v>42767</v>
@@ -7437,13 +7413,13 @@
         <v>285</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N37" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P37" s="23" t="s">
         <v>3</v>
@@ -7463,22 +7439,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J38" s="24">
         <v>42767</v>
@@ -7488,13 +7464,13 @@
         <v>285</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P38" s="23" t="s">
         <v>3</v>
@@ -7514,22 +7490,22 @@
         <v>1</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I39" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J39" s="24">
         <v>42767</v>
@@ -7539,13 +7515,13 @@
         <v>285</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N39" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P39" s="23" t="s">
         <v>3</v>
@@ -7565,22 +7541,22 @@
         <v>1</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J40" s="24">
         <v>42767</v>
@@ -7590,13 +7566,13 @@
         <v>285</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N40" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P40" s="23" t="s">
         <v>3</v>
@@ -7616,22 +7592,22 @@
         <v>1</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J41" s="24">
         <v>42767</v>
@@ -7641,13 +7617,13 @@
         <v>285</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N41" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P41" s="23" t="s">
         <v>3</v>
@@ -7667,22 +7643,22 @@
         <v>1</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J42" s="24">
         <v>42767</v>
@@ -7692,13 +7668,13 @@
         <v>285</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N42" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P42" s="23" t="s">
         <v>3</v>
@@ -7718,22 +7694,22 @@
         <v>1</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J43" s="24">
         <v>42767</v>
@@ -7743,13 +7719,13 @@
         <v>285</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N43" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P43" s="23" t="s">
         <v>3</v>
@@ -7769,22 +7745,22 @@
         <v>1</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J44" s="24">
         <v>42767</v>
@@ -7794,13 +7770,13 @@
         <v>285</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N44" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O44" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P44" s="23" t="s">
         <v>3</v>
@@ -7820,22 +7796,22 @@
         <v>1</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J45" s="24">
         <v>42767</v>
@@ -7845,13 +7821,13 @@
         <v>285</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P45" s="23" t="s">
         <v>3</v>
@@ -7871,22 +7847,22 @@
         <v>1</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J46" s="24">
         <v>42767</v>
@@ -7896,13 +7872,13 @@
         <v>285</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N46" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P46" s="23" t="s">
         <v>3</v>
@@ -7922,22 +7898,22 @@
         <v>1</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="J47" s="24">
         <v>42767</v>
@@ -7947,13 +7923,13 @@
         <v>285</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N47" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P47" s="23" t="s">
         <v>3</v>
@@ -7973,22 +7949,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J48" s="24">
         <v>42767</v>
@@ -7998,13 +7974,13 @@
         <v>285</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N48" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P48" s="23" t="s">
         <v>3</v>
@@ -8024,22 +8000,22 @@
         <v>1</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J49" s="24">
         <v>42767</v>
@@ -8049,13 +8025,13 @@
         <v>285</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N49" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P49" s="23" t="s">
         <v>3</v>
@@ -8075,22 +8051,22 @@
         <v>1</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J50" s="12">
         <v>42767</v>
@@ -8099,13 +8075,13 @@
         <v>285</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>3</v>
@@ -8125,22 +8101,22 @@
         <v>1</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J51" s="12">
         <v>42767</v>
@@ -8149,13 +8125,13 @@
         <v>285</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>3</v>
@@ -8175,22 +8151,22 @@
         <v>1</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J52" s="12">
         <v>42767</v>
@@ -8199,13 +8175,13 @@
         <v>285</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>3</v>
@@ -8225,22 +8201,22 @@
         <v>1</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J53" s="12">
         <v>42767</v>
@@ -8249,13 +8225,13 @@
         <v>285</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>3</v>
@@ -8275,22 +8251,22 @@
         <v>1</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J54" s="12">
         <v>42767</v>
@@ -8299,13 +8275,13 @@
         <v>285</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>3</v>
@@ -8325,22 +8301,22 @@
         <v>1</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J55" s="12">
         <v>42767</v>
@@ -8349,13 +8325,13 @@
         <v>285</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>3</v>
@@ -8375,22 +8351,22 @@
         <v>1</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J56" s="12">
         <v>42767</v>
@@ -8399,13 +8375,13 @@
         <v>285</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>3</v>
@@ -8425,22 +8401,22 @@
         <v>1</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J57" s="12">
         <v>42767</v>
@@ -8449,13 +8425,13 @@
         <v>285</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>3</v>
@@ -8475,22 +8451,22 @@
         <v>1</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J58" s="12">
         <v>42767</v>
@@ -8499,13 +8475,13 @@
         <v>285</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>3</v>
@@ -8525,22 +8501,22 @@
         <v>1</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="J59" s="12">
         <v>42767</v>
@@ -8549,13 +8525,13 @@
         <v>285</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>3</v>
@@ -8575,22 +8551,22 @@
         <v>1</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J60" s="12">
         <v>42767</v>
@@ -8599,13 +8575,13 @@
         <v>285</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>3</v>
@@ -8625,22 +8601,22 @@
         <v>1</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J61" s="12">
         <v>42767</v>
@@ -8649,13 +8625,13 @@
         <v>285</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>3</v>
@@ -8675,22 +8651,22 @@
         <v>1</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J62" s="12">
         <v>42767</v>
@@ -8699,13 +8675,13 @@
         <v>285</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>3</v>
@@ -8725,22 +8701,22 @@
         <v>1</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J63" s="12">
         <v>42767</v>
@@ -8749,13 +8725,13 @@
         <v>285</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>3</v>
@@ -8775,22 +8751,22 @@
         <v>1</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="J64" s="12">
         <v>42767</v>
@@ -8799,13 +8775,13 @@
         <v>285</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="P64" s="4" t="s">
         <v>3</v>
@@ -8820,7 +8796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8865,7 +8841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9059,7 +9035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9096,10 +9072,10 @@
         <v>24</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>25</v>
@@ -9108,7 +9084,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>28</v>
@@ -9117,16 +9093,16 @@
         <v>29</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>33</v>
@@ -9141,7 +9117,7 @@
         <v>34</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>377</v>
@@ -9285,7 +9261,7 @@
         <v>366</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
@@ -9324,7 +9300,7 @@
         <v>378</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>0</v>
@@ -9347,13 +9323,13 @@
         <v>367</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>48</v>
@@ -9409,7 +9385,7 @@
         <v>368</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>53</v>
@@ -9445,7 +9421,7 @@
         <v>43</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>44</v>
@@ -9471,7 +9447,7 @@
         <v>369</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>58</v>
@@ -9505,7 +9481,7 @@
         <v>43</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>63</v>
@@ -9531,7 +9507,7 @@
         <v>370</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>65</v>
@@ -9565,7 +9541,7 @@
         <v>43</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>63</v>
@@ -9591,7 +9567,7 @@
         <v>371</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>70</v>
@@ -9623,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>44</v>
@@ -9649,7 +9625,7 @@
         <v>372</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>75</v>
@@ -9707,7 +9683,7 @@
         <v>373</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>80</v>
@@ -9765,7 +9741,7 @@
         <v>374</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="11" t="s">
@@ -9797,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>44</v>
@@ -9823,7 +9799,7 @@
         <v>375</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11" t="s">
@@ -9855,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>44</v>
@@ -9875,13 +9851,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B14" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>87</v>
@@ -9911,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P14" t="s">
         <v>44</v>
@@ -9934,10 +9910,10 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>87</v>
@@ -9967,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P15" t="s">
         <v>44</v>
@@ -9990,10 +9966,10 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>87</v>
@@ -10023,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
@@ -10046,10 +10022,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>87</v>
@@ -10079,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
@@ -10102,10 +10078,10 @@
         <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>87</v>
@@ -10135,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P18" t="s">
         <v>44</v>
@@ -10150,7 +10126,7 @@
         <v>3</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -10159,7 +10135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -10234,16 +10210,16 @@
         <v>100</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>101</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>27</v>
@@ -10487,7 +10463,7 @@
         <v>18</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P5" s="12">
         <v>37257</v>
@@ -10514,7 +10490,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>106</v>
@@ -10550,7 +10526,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P6" s="12">
         <v>37622</v>
@@ -10613,7 +10589,7 @@
         <v>16</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P7" s="12">
         <v>37987</v>
@@ -10678,7 +10654,7 @@
         <v>59</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P8" s="12">
         <v>38353</v>
@@ -10743,7 +10719,7 @@
         <v>66</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P9" s="12">
         <v>38718</v>
@@ -10863,7 +10839,7 @@
         <v>76</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="12">
@@ -10924,7 +10900,7 @@
         <v>81</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P12" s="12">
         <v>39814</v>
@@ -10985,7 +10961,7 @@
         <v>84</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P13" s="12">
         <v>40179</v>
@@ -11103,7 +11079,7 @@
         <v>18</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P15" s="12">
         <v>37257</v>
@@ -11166,7 +11142,7 @@
         <v>47</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P16" s="12">
         <v>37622</v>
@@ -11229,7 +11205,7 @@
         <v>16</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P17" s="12">
         <v>37987</v>
@@ -11294,7 +11270,7 @@
         <v>59</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P18" s="12">
         <v>38353</v>
@@ -11359,7 +11335,7 @@
         <v>66</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P19" s="12">
         <v>38718</v>
@@ -11479,7 +11455,7 @@
         <v>76</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P21" s="12">
         <v>39448</v>
@@ -11542,7 +11518,7 @@
         <v>81</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P22" s="12">
         <v>39814</v>
@@ -11605,7 +11581,7 @@
         <v>84</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P23" s="12">
         <v>40179</v>
@@ -11668,7 +11644,7 @@
         <v>84</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P24" s="12">
         <v>40179</v>
@@ -11731,7 +11707,7 @@
         <v>84</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P25" s="12">
         <v>40179</v>
@@ -11752,13 +11728,13 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>119</v>
@@ -11794,7 +11770,7 @@
         <v>84</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P26" s="12">
         <v>40179</v>
@@ -11817,10 +11793,10 @@
         <v>73</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>119</v>
@@ -11856,7 +11832,7 @@
         <v>84</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P27" s="12">
         <v>40179</v>
@@ -11879,13 +11855,13 @@
         <v>56</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E28" s="4">
         <v>1.72</v>
@@ -11918,7 +11894,7 @@
         <v>84</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P28" s="12">
         <v>40179</v>
@@ -11941,13 +11917,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E29" s="4">
         <v>1.72</v>
@@ -11980,7 +11956,7 @@
         <v>84</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P29" s="12">
         <v>40179</v>
@@ -12003,10 +11979,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>106</v>
@@ -12042,7 +12018,7 @@
         <v>84</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P30" s="12">
         <v>40179</v>
@@ -12065,13 +12041,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E31" s="4">
         <v>1.72</v>
@@ -12104,7 +12080,7 @@
         <v>84</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P31" s="12">
         <v>40179</v>
@@ -12127,13 +12103,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E32" s="4">
         <v>1.72</v>
@@ -12166,7 +12142,7 @@
         <v>84</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P32" s="12">
         <v>40179</v>
@@ -12189,10 +12165,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>106</v>
@@ -12228,7 +12204,7 @@
         <v>84</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="P33" s="12">
         <v>40179</v>
@@ -12252,7 +12228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12527,10 +12503,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C16" t="s">
         <v>143</v>
@@ -12544,10 +12520,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C17" t="s">
         <v>143</v>
@@ -12565,7 +12541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12649,7 +12625,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>44</v>
@@ -12672,7 +12648,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D5" s="4">
         <v>0.25</v>
@@ -12730,7 +12706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12757,7 +12733,7 @@
         <v>148</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
@@ -12975,7 +12951,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C14" s="4">
         <v>100</v>
@@ -12989,7 +12965,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>149</v>
@@ -13061,7 +13037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13130,10 +13106,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -13142,7 +13118,7 @@
         <v>158</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>28</v>
@@ -13151,16 +13127,16 @@
         <v>29</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>33</v>
@@ -13175,7 +13151,7 @@
         <v>34</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>377</v>
@@ -13223,16 +13199,16 @@
         <v>100</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AJ1" s="9" t="s">
         <v>101</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="AL1" s="9" t="s">
         <v>27</v>
@@ -13268,7 +13244,7 @@
         <v>294</v>
       </c>
       <c r="AW1" s="9" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AX1" s="9" t="s">
         <v>156</v>
@@ -13423,7 +13399,7 @@
         <v>163</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AX2" s="9" t="s">
         <v>10</v>
@@ -13598,7 +13574,7 @@
         <v>371</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>70</v>
@@ -13628,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>44</v>
@@ -13683,7 +13659,7 @@
         <v>66</v>
       </c>
       <c r="AI4" s="13" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AJ4" s="17">
         <v>38718</v>
@@ -13698,7 +13674,7 @@
         <v>2006</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="AO4" s="18" t="s">
         <v>285</v>
@@ -13745,7 +13721,7 @@
         <v>371</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>70</v>
@@ -13775,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>44</v>
@@ -13832,7 +13808,7 @@
         <v>66</v>
       </c>
       <c r="AI5" s="13" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AJ5" s="17">
         <v>38718</v>
@@ -13847,7 +13823,7 @@
         <v>2006</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="AO5" s="18" t="s">
         <v>285</v>
@@ -13894,7 +13870,7 @@
         <v>372</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>75</v>
@@ -13985,7 +13961,7 @@
         <v>2007</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="AO6" s="18" t="s">
         <v>285</v>
@@ -14032,7 +14008,7 @@
         <v>372</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>75</v>
@@ -14125,7 +14101,7 @@
         <v>2007</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="AO7" s="18" t="s">
         <v>285</v>
@@ -14169,10 +14145,10 @@
         <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>282</v>
@@ -14202,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>44</v>
@@ -14214,13 +14190,13 @@
         <v>38</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>119</v>
@@ -14256,7 +14232,7 @@
         <v>84</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AJ8" s="12">
         <v>40179</v>
@@ -14268,13 +14244,13 @@
         <v>2010</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="AO8" s="4" t="s">
         <v>285</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="AQ8" s="4" t="s">
         <v>45</v>
@@ -14283,7 +14259,7 @@
         <v>284</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AT8" s="4" t="s">
         <v>19</v>
@@ -14292,7 +14268,7 @@
         <v>295</v>
       </c>
       <c r="AV8" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AW8" s="4">
         <v>1</v>
@@ -14305,7 +14281,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="AN15:AO26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AN15:AO26">
     <sortCondition ref="AO15:AO26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
